--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Vegfb-Flt1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Vegfb-Flt1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.8327543159685</v>
+        <v>1.911942</v>
       </c>
       <c r="H2">
-        <v>1.8327543159685</v>
+        <v>5.735825999999999</v>
       </c>
       <c r="I2">
-        <v>0.2210382877632217</v>
+        <v>0.2156379149120961</v>
       </c>
       <c r="J2">
-        <v>0.2210382877632217</v>
+        <v>0.2156379149120961</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>56.1048695349214</v>
+        <v>149.829178</v>
       </c>
       <c r="N2">
-        <v>56.1048695349214</v>
+        <v>449.487534</v>
       </c>
       <c r="O2">
-        <v>0.9181018744732893</v>
+        <v>0.965236887286734</v>
       </c>
       <c r="P2">
-        <v>0.9181018744732893</v>
+        <v>0.965236887286734</v>
       </c>
       <c r="Q2">
-        <v>102.8264417869768</v>
+        <v>286.464698243676</v>
       </c>
       <c r="R2">
-        <v>102.8264417869768</v>
+        <v>2578.182284193084</v>
       </c>
       <c r="S2">
-        <v>0.2029356663257801</v>
+        <v>0.2081416697707532</v>
       </c>
       <c r="T2">
-        <v>0.2029356663257801</v>
+        <v>0.2081416697707532</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.8327543159685</v>
+        <v>1.911942</v>
       </c>
       <c r="H3">
-        <v>1.8327543159685</v>
+        <v>5.735825999999999</v>
       </c>
       <c r="I3">
-        <v>0.2210382877632217</v>
+        <v>0.2156379149120961</v>
       </c>
       <c r="J3">
-        <v>0.2210382877632217</v>
+        <v>0.2156379149120961</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.860987429622462</v>
+        <v>1.021452666666667</v>
       </c>
       <c r="N3">
-        <v>0.860987429622462</v>
+        <v>3.064358</v>
       </c>
       <c r="O3">
-        <v>0.01408922575860026</v>
+        <v>0.006580452523633729</v>
       </c>
       <c r="P3">
-        <v>0.01408922575860026</v>
+        <v>0.006580452523633729</v>
       </c>
       <c r="Q3">
-        <v>1.577978427635192</v>
+        <v>1.952958254412</v>
       </c>
       <c r="R3">
-        <v>1.577978427635192</v>
+        <v>17.576624289708</v>
       </c>
       <c r="S3">
-        <v>0.00311425833759048</v>
+        <v>0.001418995061374418</v>
       </c>
       <c r="T3">
-        <v>0.00311425833759048</v>
+        <v>0.001418995061374418</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.8327543159685</v>
+        <v>1.911942</v>
       </c>
       <c r="H4">
-        <v>1.8327543159685</v>
+        <v>5.735825999999999</v>
       </c>
       <c r="I4">
-        <v>0.2210382877632217</v>
+        <v>0.2156379149120961</v>
       </c>
       <c r="J4">
-        <v>0.2210382877632217</v>
+        <v>0.2156379149120961</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.14377704759504</v>
+        <v>4.374661666666667</v>
       </c>
       <c r="N4">
-        <v>4.14377704759504</v>
+        <v>13.123985</v>
       </c>
       <c r="O4">
-        <v>0.06780889976811046</v>
+        <v>0.02818266018963228</v>
       </c>
       <c r="P4">
-        <v>0.06780889976811046</v>
+        <v>0.02818266018963228</v>
       </c>
       <c r="Q4">
-        <v>7.594525268391018</v>
+        <v>8.36409937629</v>
       </c>
       <c r="R4">
-        <v>7.594525268391018</v>
+        <v>75.27689438661</v>
       </c>
       <c r="S4">
-        <v>0.01498836309985106</v>
+        <v>0.006077250079968444</v>
       </c>
       <c r="T4">
-        <v>0.01498836309985106</v>
+        <v>0.006077250079968444</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.79437048547617</v>
+        <v>2.898253666666667</v>
       </c>
       <c r="H5">
-        <v>2.79437048547617</v>
+        <v>8.694761</v>
       </c>
       <c r="I5">
-        <v>0.3370134567978565</v>
+        <v>0.3268788371019294</v>
       </c>
       <c r="J5">
-        <v>0.3370134567978565</v>
+        <v>0.3268788371019295</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.1048695349214</v>
+        <v>149.829178</v>
       </c>
       <c r="N5">
-        <v>56.1048695349214</v>
+        <v>449.487534</v>
       </c>
       <c r="O5">
-        <v>0.9181018744732893</v>
+        <v>0.965236887286734</v>
       </c>
       <c r="P5">
-        <v>0.9181018744732893</v>
+        <v>0.965236887286734</v>
       </c>
       <c r="Q5">
-        <v>156.7777915198755</v>
+        <v>434.2429645121527</v>
       </c>
       <c r="R5">
-        <v>156.7777915198755</v>
+        <v>3908.186680609374</v>
       </c>
       <c r="S5">
-        <v>0.309412686408835</v>
+        <v>0.3155155112441738</v>
       </c>
       <c r="T5">
-        <v>0.309412686408835</v>
+        <v>0.3155155112441738</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.79437048547617</v>
+        <v>2.898253666666667</v>
       </c>
       <c r="H6">
-        <v>2.79437048547617</v>
+        <v>8.694761</v>
       </c>
       <c r="I6">
-        <v>0.3370134567978565</v>
+        <v>0.3268788371019294</v>
       </c>
       <c r="J6">
-        <v>0.3370134567978565</v>
+        <v>0.3268788371019295</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.860987429622462</v>
+        <v>1.021452666666667</v>
       </c>
       <c r="N6">
-        <v>0.860987429622462</v>
+        <v>3.064358</v>
       </c>
       <c r="O6">
-        <v>0.01408922575860026</v>
+        <v>0.006580452523633729</v>
       </c>
       <c r="P6">
-        <v>0.01408922575860026</v>
+        <v>0.006580452523633729</v>
       </c>
       <c r="Q6">
-        <v>2.405917861702999</v>
+        <v>2.960428936493111</v>
       </c>
       <c r="R6">
-        <v>2.405917861702999</v>
+        <v>26.643860428438</v>
       </c>
       <c r="S6">
-        <v>0.004748258676511277</v>
+        <v>0.00215101066852985</v>
       </c>
       <c r="T6">
-        <v>0.004748258676511277</v>
+        <v>0.00215101066852985</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.79437048547617</v>
+        <v>2.898253666666667</v>
       </c>
       <c r="H7">
-        <v>2.79437048547617</v>
+        <v>8.694761</v>
       </c>
       <c r="I7">
-        <v>0.3370134567978565</v>
+        <v>0.3268788371019294</v>
       </c>
       <c r="J7">
-        <v>0.3370134567978565</v>
+        <v>0.3268788371019295</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.14377704759504</v>
+        <v>4.374661666666667</v>
       </c>
       <c r="N7">
-        <v>4.14377704759504</v>
+        <v>13.123985</v>
       </c>
       <c r="O7">
-        <v>0.06780889976811046</v>
+        <v>0.02818266018963228</v>
       </c>
       <c r="P7">
-        <v>0.06780889976811046</v>
+        <v>0.02818266018963228</v>
       </c>
       <c r="Q7">
-        <v>11.57924828019316</v>
+        <v>12.67887921584278</v>
       </c>
       <c r="R7">
-        <v>11.57924828019316</v>
+        <v>114.109912942585</v>
       </c>
       <c r="S7">
-        <v>0.02285251171251028</v>
+        <v>0.009212315189225844</v>
       </c>
       <c r="T7">
-        <v>0.02285251171251028</v>
+        <v>0.009212315189225844</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.6644446570184</v>
+        <v>4.056250666666667</v>
       </c>
       <c r="H8">
-        <v>3.6644446570184</v>
+        <v>12.168752</v>
       </c>
       <c r="I8">
-        <v>0.4419482554389219</v>
+        <v>0.4574832479859744</v>
       </c>
       <c r="J8">
-        <v>0.4419482554389219</v>
+        <v>0.4574832479859745</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>56.1048695349214</v>
+        <v>149.829178</v>
       </c>
       <c r="N8">
-        <v>56.1048695349214</v>
+        <v>449.487534</v>
       </c>
       <c r="O8">
-        <v>0.9181018744732893</v>
+        <v>0.965236887286734</v>
       </c>
       <c r="P8">
-        <v>0.9181018744732893</v>
+        <v>0.965236887286734</v>
       </c>
       <c r="Q8">
-        <v>205.5931893999571</v>
+        <v>607.7447031486188</v>
       </c>
       <c r="R8">
-        <v>205.5931893999571</v>
+        <v>5469.702328337569</v>
       </c>
       <c r="S8">
-        <v>0.4057535217386743</v>
+        <v>0.4415797062718069</v>
       </c>
       <c r="T8">
-        <v>0.4057535217386743</v>
+        <v>0.441579706271807</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.6644446570184</v>
+        <v>4.056250666666667</v>
       </c>
       <c r="H9">
-        <v>3.6644446570184</v>
+        <v>12.168752</v>
       </c>
       <c r="I9">
-        <v>0.4419482554389219</v>
+        <v>0.4574832479859744</v>
       </c>
       <c r="J9">
-        <v>0.4419482554389219</v>
+        <v>0.4574832479859745</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.860987429622462</v>
+        <v>1.021452666666667</v>
       </c>
       <c r="N9">
-        <v>0.860987429622462</v>
+        <v>3.064358</v>
       </c>
       <c r="O9">
-        <v>0.01408922575860026</v>
+        <v>0.006580452523633729</v>
       </c>
       <c r="P9">
-        <v>0.01408922575860026</v>
+        <v>0.006580452523633729</v>
       </c>
       <c r="Q9">
-        <v>3.155040786240037</v>
+        <v>4.143268060135112</v>
       </c>
       <c r="R9">
-        <v>3.155040786240037</v>
+        <v>37.28941254121601</v>
       </c>
       <c r="S9">
-        <v>0.006226708744498506</v>
+        <v>0.00301044679372946</v>
       </c>
       <c r="T9">
-        <v>0.006226708744498506</v>
+        <v>0.003010446793729461</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.6644446570184</v>
+        <v>4.056250666666667</v>
       </c>
       <c r="H10">
-        <v>3.6644446570184</v>
+        <v>12.168752</v>
       </c>
       <c r="I10">
-        <v>0.4419482554389219</v>
+        <v>0.4574832479859744</v>
       </c>
       <c r="J10">
-        <v>0.4419482554389219</v>
+        <v>0.4574832479859745</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.14377704759504</v>
+        <v>4.374661666666667</v>
       </c>
       <c r="N10">
-        <v>4.14377704759504</v>
+        <v>13.123985</v>
       </c>
       <c r="O10">
-        <v>0.06780889976811046</v>
+        <v>0.02818266018963228</v>
       </c>
       <c r="P10">
-        <v>0.06780889976811046</v>
+        <v>0.02818266018963228</v>
       </c>
       <c r="Q10">
-        <v>15.18464166193512</v>
+        <v>17.74472430185778</v>
       </c>
       <c r="R10">
-        <v>15.18464166193512</v>
+        <v>159.70251871672</v>
       </c>
       <c r="S10">
-        <v>0.02996802495574913</v>
+        <v>0.01289309492043799</v>
       </c>
       <c r="T10">
-        <v>0.02996802495574913</v>
+        <v>0.01289309492043799</v>
       </c>
     </row>
   </sheetData>
